--- a/Assignment 1/final_plot-hid.xlsx
+++ b/Assignment 1/final_plot-hid.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2942FBF0-4403-485A-ADE4-6F0FA1F0761B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC5B9B-1766-40F0-A679-42CC025959BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_plot" sheetId="1" r:id="rId1"/>
@@ -77,13 +77,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="187" formatCode="0.000"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -91,7 +91,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -99,7 +99,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -108,7 +108,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -117,7 +117,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -126,7 +126,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -134,7 +134,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -142,7 +142,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -150,7 +150,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -158,7 +158,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -167,7 +167,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -176,7 +176,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -184,7 +184,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -193,7 +193,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -201,7 +201,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -210,7 +210,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -219,7 +219,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -227,7 +227,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -588,53 +588,53 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="เซลล์ตรวจสอบ" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="เซลล์ที่มีลิงก์" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="แย่" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="แสดงผล" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="การคำนวณ" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="ข้อความเตือน" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="ข้อความอธิบาย" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="ชื่อเรื่อง" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="ดี" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ป้อนค่า" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="ปานกลาง" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ผลรวม" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="หมายเหตุ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -652,7 +652,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -688,6 +688,24 @@
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>ของ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>[ 4 - 4 - 4 - 4 ]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
@@ -715,7 +733,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2758,7 +2776,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2795,7 +2813,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="239255567"/>
@@ -2880,7 +2898,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2912,7 +2930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="289601519"/>
@@ -2954,7 +2972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2991,7 +3009,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3005,7 +3023,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3068,7 +3086,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3130,7 +3148,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3259,7 +3277,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3418,7 +3436,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3456,7 +3474,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="239274703"/>
@@ -3541,7 +3559,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3573,7 +3591,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="328487599"/>
@@ -3615,7 +3633,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3652,7 +3670,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3666,7 +3684,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3729,7 +3747,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3791,7 +3809,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3917,7 +3935,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4075,7 +4093,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4113,7 +4131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1691251792"/>
@@ -4198,7 +4216,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4230,7 +4248,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1933463328"/>
@@ -4272,7 +4290,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4309,7 +4327,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6076,7 +6094,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6374,13 +6392,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -6403,7 +6421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -6449,7 +6467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -6525,7 +6543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -6611,7 +6629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -6697,7 +6715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G6">
         <v>3</v>
       </c>
@@ -6751,7 +6769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>4</v>
       </c>
@@ -6808,7 +6826,7 @@
         <v>1.3071895424836601</v>
       </c>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G8">
         <v>5</v>
       </c>
@@ -6868,7 +6886,7 @@
         <v>1.9607843137254901</v>
       </c>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G9">
         <v>6</v>
       </c>
@@ -6928,7 +6946,7 @@
         <v>3.2679738562091503</v>
       </c>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G10">
         <v>7</v>
       </c>
@@ -6982,7 +7000,7 @@
         <v>1.9607843137254901</v>
       </c>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G11">
         <v>8</v>
       </c>
@@ -7039,7 +7057,7 @@
         <v>1.9607843137254901</v>
       </c>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G12">
         <v>9</v>
       </c>
@@ -7099,7 +7117,7 @@
         <v>0.64935064935064934</v>
       </c>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G13">
         <v>10</v>
       </c>
@@ -7159,7 +7177,7 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G14">
         <v>11</v>
       </c>
@@ -7213,7 +7231,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>12</v>
       </c>
@@ -7267,7 +7285,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>13</v>
       </c>
@@ -7324,7 +7342,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="17" spans="7:50">
+    <row r="17" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>14</v>
       </c>
@@ -7384,7 +7402,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="18" spans="7:50">
+    <row r="18" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>15</v>
       </c>
@@ -7444,7 +7462,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="19" spans="7:50">
+    <row r="19" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>16</v>
       </c>
@@ -7498,7 +7516,7 @@
         <v>4.8780487804878048</v>
       </c>
     </row>
-    <row r="20" spans="7:50">
+    <row r="20" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>17</v>
       </c>
@@ -7552,7 +7570,7 @@
         <v>4.2424242424242422</v>
       </c>
     </row>
-    <row r="21" spans="7:50">
+    <row r="21" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>18</v>
       </c>
@@ -7606,7 +7624,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="22" spans="7:50">
+    <row r="22" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G22">
         <v>19</v>
       </c>
@@ -7660,7 +7678,7 @@
         <v>7.558139534883721</v>
       </c>
     </row>
-    <row r="23" spans="7:50">
+    <row r="23" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G23">
         <v>20</v>
       </c>
@@ -7714,7 +7732,7 @@
         <v>10.674157303370787</v>
       </c>
     </row>
-    <row r="24" spans="7:50">
+    <row r="24" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G24">
         <v>21</v>
       </c>
@@ -7768,7 +7786,7 @@
         <v>15.425531914893616</v>
       </c>
     </row>
-    <row r="25" spans="7:50">
+    <row r="25" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G25">
         <v>22</v>
       </c>
@@ -7822,7 +7840,7 @@
         <v>7.8125</v>
       </c>
     </row>
-    <row r="26" spans="7:50">
+    <row r="26" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G26">
         <v>23</v>
       </c>
@@ -7876,7 +7894,7 @@
         <v>0.96618357487922701</v>
       </c>
     </row>
-    <row r="27" spans="7:50">
+    <row r="27" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G27">
         <v>24</v>
       </c>
@@ -7930,7 +7948,7 @@
         <v>5.3571428571428568</v>
       </c>
     </row>
-    <row r="28" spans="7:50">
+    <row r="28" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G28">
         <v>25</v>
       </c>
@@ -7984,7 +8002,7 @@
         <v>6.3291139240506329</v>
       </c>
     </row>
-    <row r="29" spans="7:50">
+    <row r="29" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G29">
         <v>26</v>
       </c>
@@ -8038,7 +8056,7 @@
         <v>4.0650406504065044</v>
       </c>
     </row>
-    <row r="30" spans="7:50">
+    <row r="30" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G30">
         <v>27</v>
       </c>
@@ -8092,7 +8110,7 @@
         <v>1.9305019305019304</v>
       </c>
     </row>
-    <row r="31" spans="7:50">
+    <row r="31" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G31">
         <v>28</v>
       </c>
@@ -8146,7 +8164,7 @@
         <v>4.0740740740740744</v>
       </c>
     </row>
-    <row r="32" spans="7:50">
+    <row r="32" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G32">
         <v>29</v>
       </c>
@@ -8200,7 +8218,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="33" spans="7:50">
+    <row r="33" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G33">
         <v>30</v>
       </c>
@@ -8254,7 +8272,7 @@
         <v>6.5517241379310347</v>
       </c>
     </row>
-    <row r="34" spans="7:50">
+    <row r="34" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G34">
         <v>31</v>
       </c>
@@ -8308,7 +8326,7 @@
         <v>7.7441077441077439</v>
       </c>
     </row>
-    <row r="35" spans="7:50">
+    <row r="35" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G35">
         <v>32</v>
       </c>
@@ -8362,7 +8380,7 @@
         <v>7.5907590759075907</v>
       </c>
     </row>
-    <row r="36" spans="7:50">
+    <row r="36" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G36">
         <v>33</v>
       </c>
@@ -8416,7 +8434,7 @@
         <v>5.0955414012738851</v>
       </c>
     </row>
-    <row r="37" spans="7:50">
+    <row r="37" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G37">
         <v>34</v>
       </c>
@@ -8470,7 +8488,7 @@
         <v>2.4539877300613497</v>
       </c>
     </row>
-    <row r="38" spans="7:50">
+    <row r="38" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G38">
         <v>35</v>
       </c>
@@ -8524,7 +8542,7 @@
         <v>1.7647058823529411</v>
       </c>
     </row>
-    <row r="39" spans="7:50">
+    <row r="39" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G39">
         <v>36</v>
       </c>
@@ -8578,7 +8596,7 @@
         <v>1.1049723756906078</v>
       </c>
     </row>
-    <row r="40" spans="7:50">
+    <row r="40" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G40">
         <v>37</v>
       </c>
@@ -8632,7 +8650,7 @@
         <v>3.0769230769230771</v>
       </c>
     </row>
-    <row r="41" spans="7:50">
+    <row r="41" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G41">
         <v>38</v>
       </c>
@@ -8686,7 +8704,7 @@
         <v>2.1844660194174756</v>
       </c>
     </row>
-    <row r="42" spans="7:50">
+    <row r="42" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>39</v>
       </c>
@@ -8740,7 +8758,7 @@
         <v>1.6091954022988506</v>
       </c>
     </row>
-    <row r="43" spans="7:50">
+    <row r="43" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G43">
         <v>40</v>
       </c>
@@ -8794,7 +8812,7 @@
         <v>0.44742729306487694</v>
       </c>
     </row>
-    <row r="44" spans="7:50">
+    <row r="44" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G44">
         <v>41</v>
       </c>
@@ -8848,7 +8866,7 @@
         <v>0.86021505376344087</v>
       </c>
     </row>
-    <row r="45" spans="7:50">
+    <row r="45" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G45">
         <v>42</v>
       </c>
@@ -8902,7 +8920,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="46" spans="7:50">
+    <row r="46" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G46">
         <v>43</v>
       </c>
@@ -8956,7 +8974,7 @@
         <v>2.978723404255319</v>
       </c>
     </row>
-    <row r="47" spans="7:50">
+    <row r="47" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G47">
         <v>44</v>
       </c>
@@ -9010,7 +9028,7 @@
         <v>3.1779661016949152</v>
       </c>
     </row>
-    <row r="48" spans="7:50">
+    <row r="48" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G48">
         <v>45</v>
       </c>
@@ -9064,7 +9082,7 @@
         <v>2.736842105263158</v>
       </c>
     </row>
-    <row r="49" spans="7:50">
+    <row r="49" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G49">
         <v>46</v>
       </c>
@@ -9118,7 +9136,7 @@
         <v>2.3012552301255229</v>
       </c>
     </row>
-    <row r="50" spans="7:50">
+    <row r="50" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G50">
         <v>47</v>
       </c>
@@ -9172,7 +9190,7 @@
         <v>1.6632016632016633</v>
       </c>
     </row>
-    <row r="51" spans="7:50">
+    <row r="51" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G51">
         <v>48</v>
       </c>
@@ -9226,7 +9244,7 @@
         <v>1.4492753623188406</v>
       </c>
     </row>
-    <row r="52" spans="7:50">
+    <row r="52" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G52">
         <v>49</v>
       </c>
@@ -9280,7 +9298,7 @@
         <v>0.82474226804123707</v>
       </c>
     </row>
-    <row r="53" spans="7:50">
+    <row r="53" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G53">
         <v>50</v>
       </c>
@@ -9334,7 +9352,7 @@
         <v>0.61728395061728392</v>
       </c>
     </row>
-    <row r="54" spans="7:50">
+    <row r="54" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G54">
         <v>51</v>
       </c>
@@ -9388,7 +9406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="7:50">
+    <row r="55" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G55">
         <v>52</v>
       </c>
@@ -9442,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="7:50">
+    <row r="56" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G56">
         <v>53</v>
       </c>
@@ -9496,7 +9514,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="57" spans="7:50">
+    <row r="57" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G57">
         <v>54</v>
       </c>
@@ -9550,7 +9568,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="58" spans="7:50">
+    <row r="58" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G58">
         <v>55</v>
       </c>
@@ -9604,7 +9622,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="59" spans="7:50">
+    <row r="59" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G59">
         <v>56</v>
       </c>
@@ -9658,7 +9676,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="60" spans="7:50">
+    <row r="60" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G60">
         <v>57</v>
       </c>
@@ -9712,7 +9730,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="61" spans="7:50">
+    <row r="61" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G61">
         <v>58</v>
       </c>
@@ -9766,7 +9784,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="62" spans="7:50">
+    <row r="62" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G62">
         <v>59</v>
       </c>
@@ -9820,7 +9838,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="63" spans="7:50">
+    <row r="63" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G63">
         <v>60</v>
       </c>
@@ -9874,7 +9892,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="64" spans="7:50">
+    <row r="64" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G64">
         <v>61</v>
       </c>
@@ -9928,7 +9946,7 @@
         <v>0.20449897750511248</v>
       </c>
     </row>
-    <row r="65" spans="7:50">
+    <row r="65" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G65">
         <v>62</v>
       </c>
@@ -9982,7 +10000,7 @@
         <v>0.20491803278688525</v>
       </c>
     </row>
-    <row r="66" spans="7:50">
+    <row r="66" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G66">
         <v>63</v>
       </c>
@@ -10036,7 +10054,7 @@
         <v>0.20576131687242799</v>
       </c>
     </row>
-    <row r="67" spans="7:50">
+    <row r="67" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G67">
         <v>64</v>
       </c>
@@ -10090,7 +10108,7 @@
         <v>0.41322314049586778</v>
       </c>
     </row>
-    <row r="68" spans="7:50">
+    <row r="68" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G68">
         <v>65</v>
       </c>
@@ -10144,7 +10162,7 @@
         <v>0.83160083160083165</v>
       </c>
     </row>
-    <row r="69" spans="7:50">
+    <row r="69" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G69">
         <v>66</v>
       </c>
@@ -10198,7 +10216,7 @@
         <v>1.4644351464435146</v>
       </c>
     </row>
-    <row r="70" spans="7:50">
+    <row r="70" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G70">
         <v>67</v>
       </c>
@@ -10252,7 +10270,7 @@
         <v>1.8947368421052631</v>
       </c>
     </row>
-    <row r="71" spans="7:50">
+    <row r="71" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G71">
         <v>68</v>
       </c>
@@ -10306,7 +10324,7 @@
         <v>2.7659574468085109</v>
       </c>
     </row>
-    <row r="72" spans="7:50">
+    <row r="72" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G72">
         <v>69</v>
       </c>
@@ -10360,7 +10378,7 @@
         <v>2.7777777777777777</v>
       </c>
     </row>
-    <row r="73" spans="7:50">
+    <row r="73" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G73">
         <v>70</v>
       </c>
@@ -10414,7 +10432,7 @@
         <v>3.2327586206896552</v>
       </c>
     </row>
-    <row r="74" spans="7:50">
+    <row r="74" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G74">
         <v>71</v>
       </c>
@@ -10468,7 +10486,7 @@
         <v>3.4782608695652173</v>
       </c>
     </row>
-    <row r="75" spans="7:50">
+    <row r="75" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G75">
         <v>72</v>
       </c>
@@ -10522,7 +10540,7 @@
         <v>3.0701754385964914</v>
       </c>
     </row>
-    <row r="76" spans="7:50">
+    <row r="76" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G76">
         <v>73</v>
       </c>
@@ -10576,7 +10594,7 @@
         <v>1.3303769401330376</v>
       </c>
     </row>
-    <row r="77" spans="7:50">
+    <row r="77" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G77">
         <v>74</v>
       </c>
@@ -10630,7 +10648,7 @@
         <v>0.6696428571428571</v>
       </c>
     </row>
-    <row r="78" spans="7:50">
+    <row r="78" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G78">
         <v>75</v>
       </c>
@@ -10684,7 +10702,7 @@
         <v>0.90090090090090091</v>
       </c>
     </row>
-    <row r="79" spans="7:50">
+    <row r="79" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G79">
         <v>76</v>
       </c>
@@ -10738,7 +10756,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="80" spans="7:50">
+    <row r="80" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G80">
         <v>77</v>
       </c>
@@ -10792,7 +10810,7 @@
         <v>0.91743119266055051</v>
       </c>
     </row>
-    <row r="81" spans="7:50">
+    <row r="81" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G81">
         <v>78</v>
       </c>
@@ -10846,7 +10864,7 @@
         <v>1.3921113689095128</v>
       </c>
     </row>
-    <row r="82" spans="7:50">
+    <row r="82" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G82">
         <v>79</v>
       </c>
@@ -10900,7 +10918,7 @@
         <v>0.46838407494145201</v>
       </c>
     </row>
-    <row r="83" spans="7:50">
+    <row r="83" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G83">
         <v>80</v>
       </c>
@@ -10954,7 +10972,7 @@
         <v>0.23696682464454977</v>
       </c>
     </row>
-    <row r="84" spans="7:50">
+    <row r="84" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G84">
         <v>81</v>
       </c>
@@ -11008,7 +11026,7 @@
         <v>0.96153846153846156</v>
       </c>
     </row>
-    <row r="85" spans="7:50">
+    <row r="85" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G85">
         <v>82</v>
       </c>
@@ -11062,7 +11080,7 @@
         <v>1.2195121951219512</v>
       </c>
     </row>
-    <row r="86" spans="7:50">
+    <row r="86" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G86">
         <v>83</v>
       </c>
@@ -11116,7 +11134,7 @@
         <v>1.9801980198019802</v>
       </c>
     </row>
-    <row r="87" spans="7:50">
+    <row r="87" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G87">
         <v>84</v>
       </c>
@@ -11170,7 +11188,7 @@
         <v>2.7777777777777777</v>
       </c>
     </row>
-    <row r="88" spans="7:50">
+    <row r="88" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G88">
         <v>85</v>
       </c>
@@ -11224,7 +11242,7 @@
         <v>2.3076923076923075</v>
       </c>
     </row>
-    <row r="89" spans="7:50">
+    <row r="89" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G89">
         <v>86</v>
       </c>
@@ -11278,7 +11296,7 @@
         <v>3.1413612565445028</v>
       </c>
     </row>
-    <row r="90" spans="7:50">
+    <row r="90" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G90">
         <v>87</v>
       </c>
@@ -11332,7 +11350,7 @@
         <v>2.6595744680851063</v>
       </c>
     </row>
-    <row r="91" spans="7:50">
+    <row r="91" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G91">
         <v>88</v>
       </c>
@@ -11386,7 +11404,7 @@
         <v>2.1739130434782608</v>
       </c>
     </row>
-    <row r="92" spans="7:50">
+    <row r="92" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G92">
         <v>89</v>
       </c>
@@ -11440,7 +11458,7 @@
         <v>1.3888888888888888</v>
       </c>
     </row>
-    <row r="93" spans="7:50">
+    <row r="93" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G93">
         <v>90</v>
       </c>
@@ -11494,7 +11512,7 @@
         <v>0.2808988764044944</v>
       </c>
     </row>
-    <row r="94" spans="7:50">
+    <row r="94" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G94">
         <v>91</v>
       </c>
@@ -11548,7 +11566,7 @@
         <v>1.4245014245014245</v>
       </c>
     </row>
-    <row r="95" spans="7:50">
+    <row r="95" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G95">
         <v>92</v>
       </c>
@@ -11602,7 +11620,7 @@
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="96" spans="7:50">
+    <row r="96" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G96">
         <v>93</v>
       </c>
@@ -11656,7 +11674,7 @@
         <v>2.0648967551622417</v>
       </c>
     </row>
-    <row r="97" spans="7:50">
+    <row r="97" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G97">
         <v>94</v>
       </c>
@@ -11710,7 +11728,7 @@
         <v>1.4925373134328359</v>
       </c>
     </row>
-    <row r="98" spans="7:50">
+    <row r="98" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G98">
         <v>95</v>
       </c>
@@ -11764,7 +11782,7 @@
         <v>1.8237082066869301</v>
       </c>
     </row>
-    <row r="99" spans="7:50">
+    <row r="99" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G99">
         <v>96</v>
       </c>
@@ -11818,7 +11836,7 @@
         <v>3.3639143730886851</v>
       </c>
     </row>
-    <row r="100" spans="7:50">
+    <row r="100" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G100">
         <v>97</v>
       </c>
@@ -11872,7 +11890,7 @@
         <v>1.8575851393188854</v>
       </c>
     </row>
-    <row r="101" spans="7:50">
+    <row r="101" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G101">
         <v>98</v>
       </c>
@@ -11926,7 +11944,7 @@
         <v>0.31347962382445144</v>
       </c>
     </row>
-    <row r="102" spans="7:50">
+    <row r="102" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G102">
         <v>99</v>
       </c>
@@ -11980,7 +11998,7 @@
         <v>0.63492063492063489</v>
       </c>
     </row>
-    <row r="103" spans="7:50">
+    <row r="103" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G103">
         <v>100</v>
       </c>
@@ -12034,7 +12052,7 @@
         <v>0.64308681672025725</v>
       </c>
     </row>
-    <row r="104" spans="7:50">
+    <row r="104" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G104">
         <v>101</v>
       </c>
@@ -12088,7 +12106,7 @@
         <v>0.64935064935064934</v>
       </c>
     </row>
-    <row r="105" spans="7:50">
+    <row r="105" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G105">
         <v>102</v>
       </c>
@@ -12142,7 +12160,7 @@
         <v>1.6339869281045751</v>
       </c>
     </row>
-    <row r="106" spans="7:50">
+    <row r="106" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G106">
         <v>103</v>
       </c>
@@ -12196,7 +12214,7 @@
         <v>0.33003300330033003</v>
       </c>
     </row>
-    <row r="107" spans="7:50">
+    <row r="107" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G107">
         <v>104</v>
       </c>
@@ -12250,7 +12268,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="108" spans="7:50">
+    <row r="108" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G108">
         <v>105</v>
       </c>
@@ -12304,7 +12322,7 @@
         <v>0.67567567567567566</v>
       </c>
     </row>
-    <row r="109" spans="7:50">
+    <row r="109" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G109">
         <v>106</v>
       </c>
@@ -12358,7 +12376,7 @@
         <v>1.3605442176870748</v>
       </c>
     </row>
-    <row r="110" spans="7:50">
+    <row r="110" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G110">
         <v>107</v>
       </c>
@@ -12412,7 +12430,7 @@
         <v>2.0547945205479454</v>
       </c>
     </row>
-    <row r="111" spans="7:50">
+    <row r="111" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G111">
         <v>108</v>
       </c>
@@ -12466,7 +12484,7 @@
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="112" spans="7:50">
+    <row r="112" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G112">
         <v>109</v>
       </c>
@@ -12520,7 +12538,7 @@
         <v>0.34965034965034963</v>
       </c>
     </row>
-    <row r="113" spans="7:50">
+    <row r="113" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G113">
         <v>110</v>
       </c>
@@ -12574,7 +12592,7 @@
         <v>1.408450704225352</v>
       </c>
     </row>
-    <row r="114" spans="7:50">
+    <row r="114" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G114">
         <v>111</v>
       </c>
@@ -12628,7 +12646,7 @@
         <v>1.7857142857142858</v>
       </c>
     </row>
-    <row r="115" spans="7:50">
+    <row r="115" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G115">
         <v>112</v>
       </c>
@@ -12682,7 +12700,7 @@
         <v>0.36231884057971014</v>
       </c>
     </row>
-    <row r="116" spans="7:50">
+    <row r="116" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G116">
         <v>113</v>
       </c>
@@ -12736,7 +12754,7 @@
         <v>0.72992700729927007</v>
       </c>
     </row>
-    <row r="117" spans="7:50">
+    <row r="117" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G117">
         <v>114</v>
       </c>
@@ -12790,7 +12808,7 @@
         <v>2.5830258302583027</v>
       </c>
     </row>
-    <row r="118" spans="7:50">
+    <row r="118" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G118">
         <v>115</v>
       </c>
@@ -12844,7 +12862,7 @@
         <v>2.2388059701492535</v>
       </c>
     </row>
-    <row r="119" spans="7:50">
+    <row r="119" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G119">
         <v>116</v>
       </c>
@@ -12898,7 +12916,7 @@
         <v>2.641509433962264</v>
       </c>
     </row>
-    <row r="120" spans="7:50">
+    <row r="120" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G120">
         <v>117</v>
       </c>
@@ -12952,7 +12970,7 @@
         <v>3.8167938931297711</v>
       </c>
     </row>
-    <row r="121" spans="7:50">
+    <row r="121" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G121">
         <v>118</v>
       </c>
@@ -13006,7 +13024,7 @@
         <v>3.0888030888030888</v>
       </c>
     </row>
-    <row r="122" spans="7:50">
+    <row r="122" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G122">
         <v>119</v>
       </c>
@@ -13060,7 +13078,7 @@
         <v>0.390625</v>
       </c>
     </row>
-    <row r="123" spans="7:50">
+    <row r="123" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G123">
         <v>120</v>
       </c>
@@ -13114,7 +13132,7 @@
         <v>1.1857707509881423</v>
       </c>
     </row>
-    <row r="124" spans="7:50">
+    <row r="124" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G124">
         <v>121</v>
       </c>
@@ -13168,7 +13186,7 @@
         <v>1.5810276679841897</v>
       </c>
     </row>
-    <row r="125" spans="7:50">
+    <row r="125" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G125">
         <v>122</v>
       </c>
@@ -13222,7 +13240,7 @@
         <v>1.9841269841269842</v>
       </c>
     </row>
-    <row r="126" spans="7:50">
+    <row r="126" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G126">
         <v>123</v>
       </c>
@@ -13276,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="7:50">
+    <row r="127" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G127">
         <v>124</v>
       </c>
@@ -13330,7 +13348,7 @@
         <v>0.79681274900398402</v>
       </c>
     </row>
-    <row r="128" spans="7:50">
+    <row r="128" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G128">
         <v>125</v>
       </c>
@@ -13384,7 +13402,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="129" spans="7:50">
+    <row r="129" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G129">
         <v>126</v>
       </c>
@@ -13438,7 +13456,7 @@
         <v>10.040160642570282</v>
       </c>
     </row>
-    <row r="130" spans="7:50">
+    <row r="130" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G130">
         <v>127</v>
       </c>
@@ -13492,7 +13510,7 @@
         <v>9.67741935483871</v>
       </c>
     </row>
-    <row r="131" spans="7:50">
+    <row r="131" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G131">
         <v>128</v>
       </c>
@@ -13546,7 +13564,7 @@
         <v>4.048582995951417</v>
       </c>
     </row>
-    <row r="132" spans="7:50">
+    <row r="132" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G132">
         <v>129</v>
       </c>
@@ -13600,7 +13618,7 @@
         <v>1.214574898785425</v>
       </c>
     </row>
-    <row r="133" spans="7:50">
+    <row r="133" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G133">
         <v>130</v>
       </c>
@@ -13654,7 +13672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="7:50">
+    <row r="134" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G134">
         <v>131</v>
       </c>
@@ -13708,7 +13726,7 @@
         <v>0.81300813008130079</v>
       </c>
     </row>
-    <row r="135" spans="7:50">
+    <row r="135" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G135">
         <v>132</v>
       </c>
@@ -13762,7 +13780,7 @@
         <v>2.4390243902439024</v>
       </c>
     </row>
-    <row r="136" spans="7:50">
+    <row r="136" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G136">
         <v>133</v>
       </c>
@@ -13816,7 +13834,7 @@
         <v>3.2653061224489797</v>
       </c>
     </row>
-    <row r="137" spans="7:50">
+    <row r="137" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G137">
         <v>134</v>
       </c>
@@ -13870,7 +13888,7 @@
         <v>4.0816326530612246</v>
       </c>
     </row>
-    <row r="138" spans="7:50">
+    <row r="138" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G138">
         <v>135</v>
       </c>
@@ -13924,7 +13942,7 @@
         <v>4.5081967213114753</v>
       </c>
     </row>
-    <row r="139" spans="7:50">
+    <row r="139" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G139">
         <v>136</v>
       </c>
@@ -13978,7 +13996,7 @@
         <v>3.7037037037037037</v>
       </c>
     </row>
-    <row r="140" spans="7:50">
+    <row r="140" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G140">
         <v>137</v>
       </c>
@@ -14032,7 +14050,7 @@
         <v>2.4793388429752068</v>
       </c>
     </row>
-    <row r="141" spans="7:50">
+    <row r="141" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G141">
         <v>138</v>
       </c>
@@ -14086,7 +14104,7 @@
         <v>2.0746887966804981</v>
       </c>
     </row>
-    <row r="142" spans="7:50">
+    <row r="142" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G142">
         <v>139</v>
       </c>
@@ -14140,7 +14158,7 @@
         <v>9.5833333333333339</v>
       </c>
     </row>
-    <row r="143" spans="7:50">
+    <row r="143" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G143">
         <v>140</v>
       </c>
@@ -14194,7 +14212,7 @@
         <v>5.02092050209205</v>
       </c>
     </row>
-    <row r="144" spans="7:50">
+    <row r="144" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G144">
         <v>141</v>
       </c>
@@ -14248,7 +14266,7 @@
         <v>2.1008403361344539</v>
       </c>
     </row>
-    <row r="145" spans="7:50">
+    <row r="145" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G145">
         <v>142</v>
       </c>
@@ -14302,7 +14320,7 @@
         <v>0.42372881355932202</v>
       </c>
     </row>
-    <row r="146" spans="7:50">
+    <row r="146" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G146">
         <v>143</v>
       </c>
@@ -14356,7 +14374,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="147" spans="7:50">
+    <row r="147" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G147">
         <v>144</v>
       </c>
@@ -14410,7 +14428,7 @@
         <v>3.4042553191489362</v>
       </c>
     </row>
-    <row r="148" spans="7:50">
+    <row r="148" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G148">
         <v>145</v>
       </c>
@@ -14464,7 +14482,7 @@
         <v>2.1367521367521367</v>
       </c>
     </row>
-    <row r="149" spans="7:50">
+    <row r="149" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G149">
         <v>146</v>
       </c>
@@ -14518,7 +14536,7 @@
         <v>1.2875536480686696</v>
       </c>
     </row>
-    <row r="150" spans="7:50">
+    <row r="150" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G150">
         <v>147</v>
       </c>
@@ -14572,7 +14590,7 @@
         <v>0.43103448275862066</v>
       </c>
     </row>
-    <row r="151" spans="7:50">
+    <row r="151" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G151">
         <v>148</v>
       </c>
@@ -14626,7 +14644,7 @@
         <v>0.4329004329004329</v>
       </c>
     </row>
-    <row r="152" spans="7:50">
+    <row r="152" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G152">
         <v>149</v>
       </c>
@@ -14680,7 +14698,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="153" spans="7:50">
+    <row r="153" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G153">
         <v>150</v>
       </c>
@@ -14734,7 +14752,7 @@
         <v>2.6086956521739131</v>
       </c>
     </row>
-    <row r="154" spans="7:50">
+    <row r="154" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G154">
         <v>151</v>
       </c>
@@ -14788,7 +14806,7 @@
         <v>0.86580086580086579</v>
       </c>
     </row>
-    <row r="155" spans="7:50">
+    <row r="155" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G155">
         <v>152</v>
       </c>
@@ -14842,7 +14860,7 @@
         <v>0.43103448275862066</v>
       </c>
     </row>
-    <row r="156" spans="7:50">
+    <row r="156" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G156">
         <v>153</v>
       </c>
@@ -14896,7 +14914,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="157" spans="7:50">
+    <row r="157" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G157">
         <v>154</v>
       </c>
@@ -14950,7 +14968,7 @@
         <v>3.8135593220338984</v>
       </c>
     </row>
-    <row r="158" spans="7:50">
+    <row r="158" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G158">
         <v>155</v>
       </c>
@@ -15004,7 +15022,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="159" spans="7:50">
+    <row r="159" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G159">
         <v>156</v>
       </c>
@@ -15058,7 +15076,7 @@
         <v>10.096153846153847</v>
       </c>
     </row>
-    <row r="160" spans="7:50">
+    <row r="160" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G160">
         <v>157</v>
       </c>
@@ -15112,7 +15130,7 @@
         <v>3.8461538461538463</v>
       </c>
     </row>
-    <row r="161" spans="7:50">
+    <row r="161" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G161">
         <v>158</v>
       </c>
@@ -15166,7 +15184,7 @@
         <v>0.96153846153846156</v>
       </c>
     </row>
-    <row r="162" spans="7:50">
+    <row r="162" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G162">
         <v>159</v>
       </c>
@@ -15220,7 +15238,7 @@
         <v>0.9569377990430622</v>
       </c>
     </row>
-    <row r="163" spans="7:50">
+    <row r="163" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G163">
         <v>160</v>
       </c>
@@ -15274,7 +15292,7 @@
         <v>0.9569377990430622</v>
       </c>
     </row>
-    <row r="164" spans="7:50">
+    <row r="164" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G164">
         <v>161</v>
       </c>
@@ -15328,7 +15346,7 @@
         <v>0.4784688995215311</v>
       </c>
     </row>
-    <row r="165" spans="7:50">
+    <row r="165" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G165">
         <v>162</v>
       </c>
@@ -15382,7 +15400,7 @@
         <v>0.9569377990430622</v>
       </c>
     </row>
-    <row r="166" spans="7:50">
+    <row r="166" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G166">
         <v>163</v>
       </c>
@@ -15436,7 +15454,7 @@
         <v>0.4784688995215311</v>
       </c>
     </row>
-    <row r="167" spans="7:50">
+    <row r="167" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G167">
         <v>164</v>
       </c>
@@ -15490,7 +15508,7 @@
         <v>0.9569377990430622</v>
       </c>
     </row>
-    <row r="168" spans="7:50">
+    <row r="168" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G168">
         <v>165</v>
       </c>
@@ -15544,7 +15562,7 @@
         <v>0.95238095238095233</v>
       </c>
     </row>
-    <row r="169" spans="7:50">
+    <row r="169" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G169">
         <v>166</v>
       </c>
@@ -15598,7 +15616,7 @@
         <v>2.3809523809523809</v>
       </c>
     </row>
-    <row r="170" spans="7:50">
+    <row r="170" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G170">
         <v>167</v>
       </c>
@@ -15652,7 +15670,7 @@
         <v>2.3696682464454977</v>
       </c>
     </row>
-    <row r="171" spans="7:50">
+    <row r="171" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G171">
         <v>168</v>
       </c>
@@ -15706,7 +15724,7 @@
         <v>1.4218009478672986</v>
       </c>
     </row>
-    <row r="172" spans="7:50">
+    <row r="172" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G172">
         <v>169</v>
       </c>
@@ -15760,7 +15778,7 @@
         <v>0.47169811320754718</v>
       </c>
     </row>
-    <row r="173" spans="7:50">
+    <row r="173" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G173">
         <v>170</v>
       </c>
@@ -15814,7 +15832,7 @@
         <v>0.93896713615023475</v>
       </c>
     </row>
-    <row r="174" spans="7:50">
+    <row r="174" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G174">
         <v>171</v>
       </c>
@@ -15868,7 +15886,7 @@
         <v>1.408450704225352</v>
       </c>
     </row>
-    <row r="175" spans="7:50">
+    <row r="175" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G175">
         <v>172</v>
       </c>
@@ -15922,7 +15940,7 @@
         <v>0.93457943925233644</v>
       </c>
     </row>
-    <row r="176" spans="7:50">
+    <row r="176" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G176">
         <v>173</v>
       </c>
@@ -15976,7 +15994,7 @@
         <v>0.93457943925233644</v>
       </c>
     </row>
-    <row r="177" spans="7:50">
+    <row r="177" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G177">
         <v>174</v>
       </c>
@@ -16030,7 +16048,7 @@
         <v>0.46728971962616822</v>
       </c>
     </row>
-    <row r="178" spans="7:50">
+    <row r="178" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G178">
         <v>175</v>
       </c>
@@ -16084,7 +16102,7 @@
         <v>0.93023255813953487</v>
       </c>
     </row>
-    <row r="179" spans="7:50">
+    <row r="179" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G179">
         <v>176</v>
       </c>
@@ -16138,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="7:50">
+    <row r="180" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G180">
         <v>177</v>
       </c>
@@ -16192,7 +16210,7 @@
         <v>0.93023255813953487</v>
       </c>
     </row>
-    <row r="181" spans="7:50">
+    <row r="181" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G181">
         <v>178</v>
       </c>
@@ -16246,7 +16264,7 @@
         <v>0.46511627906976744</v>
       </c>
     </row>
-    <row r="182" spans="7:50">
+    <row r="182" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G182">
         <v>179</v>
       </c>
@@ -16300,7 +16318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="7:50">
+    <row r="183" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G183">
         <v>180</v>
       </c>
@@ -16354,7 +16372,7 @@
         <v>0.92165898617511521</v>
       </c>
     </row>
-    <row r="184" spans="7:50">
+    <row r="184" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G184">
         <v>181</v>
       </c>
@@ -16408,7 +16426,7 @@
         <v>1.834862385321101</v>
       </c>
     </row>
-    <row r="185" spans="7:50">
+    <row r="185" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G185">
         <v>182</v>
       </c>
@@ -16462,7 +16480,7 @@
         <v>2.7149321266968327</v>
       </c>
     </row>
-    <row r="186" spans="7:50">
+    <row r="186" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G186">
         <v>183</v>
       </c>
@@ -16516,7 +16534,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="187" spans="7:50">
+    <row r="187" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G187">
         <v>184</v>
       </c>
@@ -16570,7 +16588,7 @@
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="188" spans="7:50">
+    <row r="188" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G188">
         <v>185</v>
       </c>
@@ -16624,7 +16642,7 @@
         <v>1.7241379310344827</v>
       </c>
     </row>
-    <row r="189" spans="7:50">
+    <row r="189" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G189">
         <v>186</v>
       </c>
@@ -16678,7 +16696,7 @@
         <v>4.2553191489361701</v>
       </c>
     </row>
-    <row r="190" spans="7:50">
+    <row r="190" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G190">
         <v>187</v>
       </c>
@@ -16732,7 +16750,7 @@
         <v>5.882352941176471</v>
       </c>
     </row>
-    <row r="191" spans="7:50">
+    <row r="191" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G191">
         <v>188</v>
       </c>
@@ -16786,7 +16804,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="192" spans="7:50">
+    <row r="192" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G192">
         <v>189</v>
       </c>
@@ -16840,7 +16858,7 @@
         <v>0.40816326530612246</v>
       </c>
     </row>
-    <row r="193" spans="7:50">
+    <row r="193" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G193">
         <v>190</v>
       </c>
@@ -16894,7 +16912,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="194" spans="7:50">
+    <row r="194" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G194">
         <v>191</v>
       </c>
@@ -16948,7 +16966,7 @@
         <v>5.0980392156862742</v>
       </c>
     </row>
-    <row r="195" spans="7:50">
+    <row r="195" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G195">
         <v>192</v>
       </c>
@@ -17002,7 +17020,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="196" spans="7:50">
+    <row r="196" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G196">
         <v>193</v>
       </c>
@@ -17056,7 +17074,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="197" spans="7:50">
+    <row r="197" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G197">
         <v>194</v>
       </c>
@@ -17110,7 +17128,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="198" spans="7:50">
+    <row r="198" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G198">
         <v>195</v>
       </c>
@@ -17164,7 +17182,7 @@
         <v>11.666666666666666</v>
       </c>
     </row>
-    <row r="199" spans="7:50">
+    <row r="199" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G199">
         <v>196</v>
       </c>
@@ -17218,7 +17236,7 @@
         <v>12.420382165605096</v>
       </c>
     </row>
-    <row r="200" spans="7:50">
+    <row r="200" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G200">
         <v>197</v>
       </c>
@@ -17272,7 +17290,7 @@
         <v>12.195121951219512</v>
       </c>
     </row>
-    <row r="201" spans="7:50">
+    <row r="201" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G201">
         <v>198</v>
       </c>
@@ -17326,7 +17344,7 @@
         <v>9.7058823529411757</v>
       </c>
     </row>
-    <row r="202" spans="7:50">
+    <row r="202" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G202">
         <v>199</v>
       </c>
@@ -17380,7 +17398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="7:50">
+    <row r="203" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G203">
         <v>200</v>
       </c>
@@ -17434,7 +17452,7 @@
         <v>10.277777777777779</v>
       </c>
     </row>
-    <row r="204" spans="7:50">
+    <row r="204" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G204">
         <v>201</v>
       </c>
@@ -17488,7 +17506,7 @@
         <v>3.2432432432432434</v>
       </c>
     </row>
-    <row r="205" spans="7:50">
+    <row r="205" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G205">
         <v>202</v>
       </c>
@@ -17542,7 +17560,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="206" spans="7:50">
+    <row r="206" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G206">
         <v>203</v>
       </c>
@@ -17596,7 +17614,7 @@
         <v>1.7948717948717949</v>
       </c>
     </row>
-    <row r="207" spans="7:50">
+    <row r="207" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G207">
         <v>204</v>
       </c>
@@ -17650,7 +17668,7 @@
         <v>1.7587939698492463</v>
       </c>
     </row>
-    <row r="208" spans="7:50">
+    <row r="208" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G208">
         <v>205</v>
       </c>
@@ -17704,7 +17722,7 @@
         <v>2.9629629629629628</v>
       </c>
     </row>
-    <row r="209" spans="7:50">
+    <row r="209" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G209">
         <v>206</v>
       </c>
@@ -17758,7 +17776,7 @@
         <v>1.941747572815534</v>
       </c>
     </row>
-    <row r="210" spans="7:50">
+    <row r="210" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G210">
         <v>207</v>
       </c>
@@ -17812,7 +17830,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="211" spans="7:50">
+    <row r="211" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G211">
         <v>208</v>
       </c>
@@ -17866,7 +17884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="7:50">
+    <row r="212" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G212">
         <v>209</v>
       </c>
@@ -17920,7 +17938,7 @@
         <v>0.46189376443418012</v>
       </c>
     </row>
-    <row r="213" spans="7:50">
+    <row r="213" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G213">
         <v>210</v>
       </c>
@@ -17974,7 +17992,7 @@
         <v>0.91324200913242004</v>
       </c>
     </row>
-    <row r="214" spans="7:50">
+    <row r="214" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G214">
         <v>211</v>
       </c>
@@ -18028,7 +18046,7 @@
         <v>0.449438202247191</v>
       </c>
     </row>
-    <row r="215" spans="7:50">
+    <row r="215" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G215">
         <v>212</v>
       </c>
@@ -18082,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="7:50">
+    <row r="216" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G216">
         <v>213</v>
       </c>
@@ -18136,7 +18154,7 @@
         <v>0.22026431718061673</v>
       </c>
     </row>
-    <row r="217" spans="7:50">
+    <row r="217" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G217">
         <v>214</v>
       </c>
@@ -18190,7 +18208,7 @@
         <v>0.65645514223194745</v>
       </c>
     </row>
-    <row r="218" spans="7:50">
+    <row r="218" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G218">
         <v>215</v>
       </c>
@@ -18244,7 +18262,7 @@
         <v>1.3043478260869565</v>
       </c>
     </row>
-    <row r="219" spans="7:50">
+    <row r="219" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G219">
         <v>216</v>
       </c>
@@ -18298,7 +18316,7 @@
         <v>0.86021505376344087</v>
       </c>
     </row>
-    <row r="220" spans="7:50">
+    <row r="220" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G220">
         <v>217</v>
       </c>
@@ -18352,7 +18370,7 @@
         <v>1.0729613733905579</v>
       </c>
     </row>
-    <row r="221" spans="7:50">
+    <row r="221" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G221">
         <v>218</v>
       </c>
@@ -18406,7 +18424,7 @@
         <v>1.2847965738758029</v>
       </c>
     </row>
-    <row r="222" spans="7:50">
+    <row r="222" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G222">
         <v>219</v>
       </c>
@@ -18460,7 +18478,7 @@
         <v>1.4925373134328359</v>
       </c>
     </row>
-    <row r="223" spans="7:50">
+    <row r="223" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G223">
         <v>220</v>
       </c>
@@ -18514,7 +18532,7 @@
         <v>1.4893617021276595</v>
       </c>
     </row>
-    <row r="224" spans="7:50">
+    <row r="224" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G224">
         <v>221</v>
       </c>
@@ -18568,7 +18586,7 @@
         <v>1.2738853503184713</v>
       </c>
     </row>
-    <row r="225" spans="7:50">
+    <row r="225" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G225">
         <v>222</v>
       </c>
@@ -18622,7 +18640,7 @@
         <v>1.2738853503184713</v>
       </c>
     </row>
-    <row r="226" spans="7:50">
+    <row r="226" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G226">
         <v>223</v>
       </c>
@@ -18676,7 +18694,7 @@
         <v>1.4861995753715498</v>
       </c>
     </row>
-    <row r="227" spans="7:50">
+    <row r="227" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G227">
         <v>224</v>
       </c>
@@ -18730,7 +18748,7 @@
         <v>1.4861995753715498</v>
       </c>
     </row>
-    <row r="228" spans="7:50">
+    <row r="228" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G228">
         <v>225</v>
       </c>
@@ -18784,7 +18802,7 @@
         <v>1.4893617021276595</v>
       </c>
     </row>
-    <row r="229" spans="7:50">
+    <row r="229" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G229">
         <v>226</v>
       </c>
@@ -18838,7 +18856,7 @@
         <v>1.2765957446808511</v>
       </c>
     </row>
-    <row r="230" spans="7:50">
+    <row r="230" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G230">
         <v>227</v>
       </c>
@@ -18892,7 +18910,7 @@
         <v>1.2765957446808511</v>
       </c>
     </row>
-    <row r="231" spans="7:50">
+    <row r="231" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G231">
         <v>228</v>
       </c>
@@ -18946,7 +18964,7 @@
         <v>1.4925373134328359</v>
       </c>
     </row>
-    <row r="232" spans="7:50">
+    <row r="232" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G232">
         <v>229</v>
       </c>
@@ -19000,7 +19018,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="233" spans="7:50">
+    <row r="233" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G233">
         <v>230</v>
       </c>
@@ -19054,7 +19072,7 @@
         <v>0.85653104925053536</v>
       </c>
     </row>
-    <row r="234" spans="7:50">
+    <row r="234" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G234">
         <v>231</v>
       </c>
@@ -19108,7 +19126,7 @@
         <v>1.075268817204301</v>
       </c>
     </row>
-    <row r="235" spans="7:50">
+    <row r="235" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G235">
         <v>232</v>
       </c>
@@ -19162,7 +19180,7 @@
         <v>1.2987012987012987</v>
       </c>
     </row>
-    <row r="236" spans="7:50">
+    <row r="236" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G236">
         <v>233</v>
       </c>
@@ -19216,7 +19234,7 @@
         <v>1.3071895424836601</v>
       </c>
     </row>
-    <row r="237" spans="7:50">
+    <row r="237" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G237">
         <v>234</v>
       </c>
@@ -19270,7 +19288,7 @@
         <v>1.5317286652078774</v>
       </c>
     </row>
-    <row r="238" spans="7:50">
+    <row r="238" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G238">
         <v>235</v>
       </c>
@@ -19324,7 +19342,7 @@
         <v>1.5384615384615385</v>
       </c>
     </row>
-    <row r="239" spans="7:50">
+    <row r="239" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G239">
         <v>236</v>
       </c>
@@ -19378,7 +19396,7 @@
         <v>1.7777777777777777</v>
       </c>
     </row>
-    <row r="240" spans="7:50">
+    <row r="240" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G240">
         <v>237</v>
       </c>
@@ -19432,7 +19450,7 @@
         <v>1.7897091722595078</v>
       </c>
     </row>
-    <row r="241" spans="7:50">
+    <row r="241" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G241">
         <v>238</v>
       </c>
@@ -19486,7 +19504,7 @@
         <v>1.5765765765765767</v>
       </c>
     </row>
-    <row r="242" spans="7:50">
+    <row r="242" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G242">
         <v>239</v>
       </c>
@@ -19540,7 +19558,7 @@
         <v>1.3605442176870748</v>
       </c>
     </row>
-    <row r="243" spans="7:50">
+    <row r="243" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G243">
         <v>240</v>
       </c>
@@ -19594,7 +19612,7 @@
         <v>0.91533180778032042</v>
       </c>
     </row>
-    <row r="244" spans="7:50">
+    <row r="244" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G244">
         <v>241</v>
       </c>
@@ -19648,7 +19666,7 @@
         <v>0.69284064665127021</v>
       </c>
     </row>
-    <row r="245" spans="7:50">
+    <row r="245" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G245">
         <v>242</v>
       </c>
@@ -19702,7 +19720,7 @@
         <v>1.1627906976744187</v>
       </c>
     </row>
-    <row r="246" spans="7:50">
+    <row r="246" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G246">
         <v>243</v>
       </c>
@@ -19756,7 +19774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="7:50">
+    <row r="247" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G247">
         <v>244</v>
       </c>
@@ -19810,7 +19828,7 @@
         <v>1.179245283018868</v>
       </c>
     </row>
-    <row r="248" spans="7:50">
+    <row r="248" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G248">
         <v>245</v>
       </c>
@@ -19864,7 +19882,7 @@
         <v>1.6666666666666667</v>
       </c>
     </row>
-    <row r="249" spans="7:50">
+    <row r="249" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G249">
         <v>246</v>
       </c>
@@ -19918,7 +19936,7 @@
         <v>1.6786570743405276</v>
       </c>
     </row>
-    <row r="250" spans="7:50">
+    <row r="250" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G250">
         <v>247</v>
       </c>
@@ -19972,7 +19990,7 @@
         <v>2.4213075060532687</v>
       </c>
     </row>
-    <row r="251" spans="7:50">
+    <row r="251" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G251">
         <v>248</v>
       </c>
@@ -20026,7 +20044,7 @@
         <v>3.9024390243902438</v>
       </c>
     </row>
-    <row r="252" spans="7:50">
+    <row r="252" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G252">
         <v>249</v>
       </c>
@@ -20080,7 +20098,7 @@
         <v>2.7160493827160495</v>
       </c>
     </row>
-    <row r="253" spans="7:50">
+    <row r="253" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G253">
         <v>250</v>
       </c>
@@ -20134,7 +20152,7 @@
         <v>4.2394014962593518</v>
       </c>
     </row>
-    <row r="254" spans="7:50">
+    <row r="254" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G254">
         <v>251</v>
       </c>
@@ -20188,7 +20206,7 @@
         <v>2.770780856423174</v>
       </c>
     </row>
-    <row r="255" spans="7:50">
+    <row r="255" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G255">
         <v>252</v>
       </c>
@@ -20242,7 +20260,7 @@
         <v>2.2900763358778624</v>
       </c>
     </row>
-    <row r="256" spans="7:50">
+    <row r="256" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G256">
         <v>253</v>
       </c>
@@ -20296,7 +20314,7 @@
         <v>2.0512820512820511</v>
       </c>
     </row>
-    <row r="257" spans="7:50">
+    <row r="257" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G257">
         <v>254</v>
       </c>
@@ -20350,7 +20368,7 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
-    <row r="258" spans="7:50">
+    <row r="258" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G258">
         <v>255</v>
       </c>
@@ -20404,7 +20422,7 @@
         <v>1.5748031496062993</v>
       </c>
     </row>
-    <row r="259" spans="7:50">
+    <row r="259" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G259">
         <v>256</v>
       </c>
@@ -20458,7 +20476,7 @@
         <v>1.856763925729443</v>
       </c>
     </row>
-    <row r="260" spans="7:50">
+    <row r="260" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G260">
         <v>257</v>
       </c>
@@ -20512,7 +20530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="7:50">
+    <row r="261" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G261">
         <v>258</v>
       </c>
@@ -20566,7 +20584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="7:50">
+    <row r="262" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G262">
         <v>259</v>
       </c>
@@ -20620,7 +20638,7 @@
         <v>0.27397260273972601</v>
       </c>
     </row>
-    <row r="263" spans="7:50">
+    <row r="263" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G263">
         <v>260</v>
       </c>
@@ -20674,7 +20692,7 @@
         <v>0.554016620498615</v>
       </c>
     </row>
-    <row r="264" spans="7:50">
+    <row r="264" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G264">
         <v>261</v>
       </c>
@@ -20728,7 +20746,7 @@
         <v>0.84033613445378152</v>
       </c>
     </row>
-    <row r="265" spans="7:50">
+    <row r="265" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G265">
         <v>262</v>
       </c>
@@ -20782,7 +20800,7 @@
         <v>0.28328611898016998</v>
       </c>
     </row>
-    <row r="266" spans="7:50">
+    <row r="266" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G266">
         <v>263</v>
       </c>
@@ -20836,7 +20854,7 @@
         <v>0.85959885386819479</v>
       </c>
     </row>
-    <row r="267" spans="7:50">
+    <row r="267" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G267">
         <v>264</v>
       </c>
@@ -20890,7 +20908,7 @@
         <v>0.57971014492753625</v>
       </c>
     </row>
-    <row r="268" spans="7:50">
+    <row r="268" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G268">
         <v>265</v>
       </c>
@@ -20944,7 +20962,7 @@
         <v>0.87976539589442815</v>
       </c>
     </row>
-    <row r="269" spans="7:50">
+    <row r="269" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G269">
         <v>266</v>
       </c>
@@ -20998,7 +21016,7 @@
         <v>0.29673590504451036</v>
       </c>
     </row>
-    <row r="270" spans="7:50">
+    <row r="270" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G270">
         <v>267</v>
       </c>
@@ -21052,7 +21070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="7:50">
+    <row r="271" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G271">
         <v>268</v>
       </c>
@@ -21106,7 +21124,7 @@
         <v>1.2195121951219512</v>
       </c>
     </row>
-    <row r="272" spans="7:50">
+    <row r="272" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G272">
         <v>269</v>
       </c>
@@ -21160,7 +21178,7 @@
         <v>0.92307692307692313</v>
       </c>
     </row>
-    <row r="273" spans="7:50">
+    <row r="273" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G273">
         <v>270</v>
       </c>
@@ -21214,7 +21232,7 @@
         <v>1.2422360248447204</v>
       </c>
     </row>
-    <row r="274" spans="7:50">
+    <row r="274" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G274">
         <v>271</v>
       </c>
@@ -21268,7 +21286,7 @@
         <v>1.2539184952978057</v>
       </c>
     </row>
-    <row r="275" spans="7:50">
+    <row r="275" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G275">
         <v>272</v>
       </c>
@@ -21322,7 +21340,7 @@
         <v>1.2618296529968454</v>
       </c>
     </row>
-    <row r="276" spans="7:50">
+    <row r="276" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G276">
         <v>273</v>
       </c>
@@ -21376,7 +21394,7 @@
         <v>1.2698412698412698</v>
       </c>
     </row>
-    <row r="277" spans="7:50">
+    <row r="277" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G277">
         <v>274</v>
       </c>
@@ -21430,7 +21448,7 @@
         <v>0.95846645367412142</v>
       </c>
     </row>
-    <row r="278" spans="7:50">
+    <row r="278" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G278">
         <v>275</v>
       </c>
@@ -21484,7 +21502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="7:50">
+    <row r="279" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G279">
         <v>276</v>
       </c>
@@ -21538,7 +21556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="7:50">
+    <row r="280" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G280">
         <v>277</v>
       </c>
@@ -21592,7 +21610,7 @@
         <v>0.32467532467532467</v>
       </c>
     </row>
-    <row r="281" spans="7:50">
+    <row r="281" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G281">
         <v>278</v>
       </c>
@@ -21646,7 +21664,7 @@
         <v>0.65146579804560256</v>
       </c>
     </row>
-    <row r="282" spans="7:50">
+    <row r="282" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G282">
         <v>279</v>
       </c>
@@ -21700,7 +21718,7 @@
         <v>1.639344262295082</v>
       </c>
     </row>
-    <row r="283" spans="7:50">
+    <row r="283" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G283">
         <v>280</v>
       </c>
@@ -21754,7 +21772,7 @@
         <v>2.6402640264026402</v>
       </c>
     </row>
-    <row r="284" spans="7:50">
+    <row r="284" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G284">
         <v>281</v>
       </c>
@@ -21808,7 +21826,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="285" spans="7:50">
+    <row r="285" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G285">
         <v>282</v>
       </c>
@@ -21862,7 +21880,7 @@
         <v>3.6912751677852347</v>
       </c>
     </row>
-    <row r="286" spans="7:50">
+    <row r="286" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G286">
         <v>283</v>
       </c>
@@ -21916,7 +21934,7 @@
         <v>3.7162162162162162</v>
       </c>
     </row>
-    <row r="287" spans="7:50">
+    <row r="287" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G287">
         <v>284</v>
       </c>
@@ -21970,7 +21988,7 @@
         <v>4.0816326530612246</v>
       </c>
     </row>
-    <row r="288" spans="7:50">
+    <row r="288" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G288">
         <v>285</v>
       </c>
@@ -22024,7 +22042,7 @@
         <v>4.4217687074829932</v>
       </c>
     </row>
-    <row r="289" spans="7:50">
+    <row r="289" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G289">
         <v>286</v>
       </c>
@@ -22078,7 +22096,7 @@
         <v>4.0955631399317403</v>
       </c>
     </row>
-    <row r="290" spans="7:50">
+    <row r="290" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G290">
         <v>287</v>
       </c>
@@ -22132,7 +22150,7 @@
         <v>3.0927835051546393</v>
       </c>
     </row>
-    <row r="291" spans="7:50">
+    <row r="291" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G291">
         <v>288</v>
       </c>
@@ -22186,7 +22204,7 @@
         <v>1.0309278350515463</v>
       </c>
     </row>
-    <row r="292" spans="7:50">
+    <row r="292" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G292">
         <v>289</v>
       </c>
@@ -22240,7 +22258,7 @@
         <v>0.34482758620689657</v>
       </c>
     </row>
-    <row r="293" spans="7:50">
+    <row r="293" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G293">
         <v>290</v>
       </c>
@@ -22294,7 +22312,7 @@
         <v>0.69444444444444442</v>
       </c>
     </row>
-    <row r="294" spans="7:50">
+    <row r="294" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G294">
         <v>291</v>
       </c>
@@ -22348,7 +22366,7 @@
         <v>1.7361111111111112</v>
       </c>
     </row>
-    <row r="295" spans="7:50">
+    <row r="295" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G295">
         <v>292</v>
       </c>
@@ -22402,7 +22420,7 @@
         <v>3.103448275862069</v>
       </c>
     </row>
-    <row r="296" spans="7:50">
+    <row r="296" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G296">
         <v>293</v>
       </c>
@@ -22456,7 +22474,7 @@
         <v>2.7210884353741496</v>
       </c>
     </row>
-    <row r="297" spans="7:50">
+    <row r="297" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G297">
         <v>294</v>
       </c>
@@ -22510,7 +22528,7 @@
         <v>0.33112582781456956</v>
       </c>
     </row>
-    <row r="298" spans="7:50">
+    <row r="298" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G298">
         <v>295</v>
       </c>
@@ -22564,7 +22582,7 @@
         <v>1.2987012987012987</v>
       </c>
     </row>
-    <row r="299" spans="7:50">
+    <row r="299" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G299">
         <v>296</v>
       </c>
@@ -22618,7 +22636,7 @@
         <v>2.5396825396825395</v>
       </c>
     </row>
-    <row r="300" spans="7:50">
+    <row r="300" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G300">
         <v>297</v>
       </c>
@@ -22672,7 +22690,7 @@
         <v>5.2795031055900621</v>
       </c>
     </row>
-    <row r="301" spans="7:50">
+    <row r="301" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G301">
         <v>298</v>
       </c>
@@ -22726,7 +22744,7 @@
         <v>6.1162079510703364</v>
       </c>
     </row>
-    <row r="302" spans="7:50">
+    <row r="302" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G302">
         <v>299</v>
       </c>
@@ -22780,7 +22798,7 @@
         <v>4.5454545454545459</v>
       </c>
     </row>
-    <row r="303" spans="7:50">
+    <row r="303" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G303">
         <v>300</v>
       </c>
@@ -22834,7 +22852,7 @@
         <v>2.4024024024024024</v>
       </c>
     </row>
-    <row r="304" spans="7:50">
+    <row r="304" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G304">
         <v>301</v>
       </c>
@@ -22888,7 +22906,7 @@
         <v>0.90090090090090091</v>
       </c>
     </row>
-    <row r="305" spans="7:50">
+    <row r="305" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G305">
         <v>302</v>
       </c>
@@ -22942,7 +22960,7 @@
         <v>4.2296072507552873</v>
       </c>
     </row>
-    <row r="306" spans="7:50">
+    <row r="306" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G306">
         <v>303</v>
       </c>
@@ -22996,7 +23014,7 @@
         <v>7.6219512195121952</v>
       </c>
     </row>
-    <row r="307" spans="7:50">
+    <row r="307" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G307">
         <v>304</v>
       </c>
@@ -23050,7 +23068,7 @@
         <v>8.8414634146341466</v>
       </c>
     </row>
-    <row r="308" spans="7:50">
+    <row r="308" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G308">
         <v>305</v>
       </c>
@@ -23104,7 +23122,7 @@
         <v>9.5384615384615383</v>
       </c>
     </row>
-    <row r="309" spans="7:50">
+    <row r="309" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G309">
         <v>306</v>
       </c>
@@ -23158,7 +23176,7 @@
         <v>8.695652173913043</v>
       </c>
     </row>
-    <row r="310" spans="7:50">
+    <row r="310" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G310">
         <v>307</v>
       </c>
@@ -23212,7 +23230,7 @@
         <v>7.8125</v>
       </c>
     </row>
-    <row r="311" spans="7:50">
+    <row r="311" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G311">
         <v>308</v>
       </c>
@@ -23266,7 +23284,7 @@
         <v>6.309148264984227</v>
       </c>
     </row>
-    <row r="312" spans="7:50">
+    <row r="312" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G312">
         <v>309</v>
       </c>
@@ -23320,7 +23338,7 @@
         <v>4.1269841269841274</v>
       </c>
     </row>
-    <row r="313" spans="7:50">
+    <row r="313" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G313">
         <v>310</v>
       </c>
@@ -23374,7 +23392,7 @@
         <v>2.903225806451613</v>
       </c>
     </row>
-    <row r="314" spans="7:50">
+    <row r="314" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G314">
         <v>311</v>
       </c>
@@ -23428,7 +23446,7 @@
         <v>3.5830618892508141</v>
       </c>
     </row>
-    <row r="315" spans="7:50">
+    <row r="315" spans="7:50" x14ac:dyDescent="0.3">
       <c r="G315">
         <v>312</v>
       </c>
@@ -23482,7 +23500,7 @@
         <v>3.6065573770491803</v>
       </c>
     </row>
-    <row r="316" spans="7:50">
+    <row r="316" spans="7:50" x14ac:dyDescent="0.3">
       <c r="AU316">
         <v>312</v>
       </c>

--- a/Assignment 1/final_plot-hid.xlsx
+++ b/Assignment 1/final_plot-hid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CC5B9B-1766-40F0-A679-42CC025959BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF96C24-2ADA-468C-B8A0-6FE06489263A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_plot" sheetId="1" r:id="rId1"/>
@@ -3867,16 +3867,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>91.454599999999999</c:v>
+                  <c:v>82.454599999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.626499999999993</c:v>
+                  <c:v>82.626499999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.851700000000008</c:v>
+                  <c:v>84.851699999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.873700000000014</c:v>
+                  <c:v>83.873699999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3993,16 +3993,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>82.5</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.5</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.5</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.5</c:v>
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6392,8 +6392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="L13" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6445,14 +6445,14 @@
         <v>10</v>
       </c>
       <c r="M2" s="4">
-        <v>91.454599999999999</v>
+        <v>82.454599999999999</v>
       </c>
       <c r="N2" s="4">
         <v>90.93425354316409</v>
       </c>
       <c r="O2">
         <f>SUM(Q4,R5)*100/SUM(Q4:R5)</f>
-        <v>82.5</v>
+        <v>78.5</v>
       </c>
       <c r="U2" t="s">
         <v>4</v>
@@ -6498,14 +6498,14 @@
         <v>3</v>
       </c>
       <c r="M3" s="4">
-        <v>98.626499999999993</v>
+        <v>82.626499999999993</v>
       </c>
       <c r="N3" s="4">
         <v>97.620069929227171</v>
       </c>
       <c r="O3">
         <f>SUM(Q8,R9)*100/SUM(Q8:R9)</f>
-        <v>96.5</v>
+        <v>79</v>
       </c>
       <c r="Q3" t="s">
         <v>10</v>
@@ -6574,20 +6574,20 @@
         <v>11</v>
       </c>
       <c r="M4" s="4">
-        <v>98.851700000000008</v>
+        <v>84.851699999999994</v>
       </c>
       <c r="N4" s="4">
         <v>97.473976060424917</v>
       </c>
       <c r="O4">
         <f>SUM(Q12,R13)*100/SUM(Q12:R13)</f>
-        <v>97.5</v>
+        <v>79.5</v>
       </c>
       <c r="Q4" s="3">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="R4" s="3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -6660,20 +6660,20 @@
         <v>12</v>
       </c>
       <c r="M5" s="4">
-        <v>98.873700000000014</v>
+        <v>83.873699999999999</v>
       </c>
       <c r="N5" s="4">
         <v>98.154114598222236</v>
       </c>
       <c r="O5">
         <f>SUM(Q17,R18)*100/SUM(Q17:R18)</f>
-        <v>96.5</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="3">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="R5" s="3">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="T5">
         <v>2</v>
@@ -6841,10 +6841,10 @@
         <v>1.3071895424836601</v>
       </c>
       <c r="Q8" s="3">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="R8" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="T8">
         <v>5</v>
@@ -6901,10 +6901,10 @@
         <v>1.3071895424836601</v>
       </c>
       <c r="Q9" s="3">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="R9" s="3">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="T9">
         <v>6</v>
@@ -7072,10 +7072,10 @@
         <v>0.64516129032258063</v>
       </c>
       <c r="Q12" s="3">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="R12" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="T12">
         <v>9</v>
@@ -7132,10 +7132,10 @@
         <v>1.2820512820512822</v>
       </c>
       <c r="Q13" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="R13" s="3">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="T13">
         <v>10</v>
@@ -7357,10 +7357,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" s="3">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="R17" s="3">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="T17">
         <v>14</v>
@@ -7417,10 +7417,10 @@
         <v>5.4878048780487809</v>
       </c>
       <c r="Q18" s="3">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="R18" s="3">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="T18">
         <v>15</v>
